--- a/analysis/pre_gemini_data/participant300/hard.xlsx
+++ b/analysis/pre_gemini_data/participant300/hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ12"/>
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,262 +422,258 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>args</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>assign3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>extrnal</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>loopstae</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>loopstae3</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>loopstate2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>methodcall7</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>methodcall8</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var14</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -895,7 +879,7 @@
         <v>100</v>
       </c>
       <c r="AU3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
         <v>100</v>
@@ -920,10 +904,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -933,71 +917,71 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L4" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
         <v>4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>7</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1012,25 +996,25 @@
         <v>2</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AL4" t="n">
         <v>2</v>
       </c>
       <c r="AM4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>1</v>
@@ -1039,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>3</v>
@@ -1050,9 +1034,7 @@
       <c r="AT4" t="n">
         <v>1</v>
       </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="n">
         <v>4</v>
       </c>
@@ -1066,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1076,10 +1058,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
@@ -1089,71 +1071,71 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
         <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L5" t="n">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="M5" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>302</v>
       </c>
       <c r="T5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
         <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
         <v>3</v>
@@ -1168,25 +1150,25 @@
         <v>4</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="AL5" t="n">
         <v>3</v>
       </c>
       <c r="AM5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1195,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>4</v>
@@ -1206,9 +1188,7 @@
       <c r="AT5" t="n">
         <v>2</v>
       </c>
-      <c r="AU5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="n">
         <v>5</v>
       </c>
@@ -1222,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1232,10 +1212,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>900.96</v>
+        <v>784.15</v>
       </c>
       <c r="C6" t="n">
-        <v>5255.74</v>
+        <v>4538.29</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
@@ -1245,71 +1225,71 @@
         <v>1885.17</v>
       </c>
       <c r="G6" t="n">
-        <v>1467.5</v>
+        <v>1284.66</v>
       </c>
       <c r="H6" t="n">
-        <v>433.75</v>
+        <v>150.11</v>
       </c>
       <c r="I6" t="n">
-        <v>11630.97</v>
+        <v>10329.58</v>
       </c>
       <c r="J6" t="n">
         <v>2936.23</v>
       </c>
       <c r="K6" t="n">
-        <v>15015.97</v>
+        <v>13831.36</v>
       </c>
       <c r="L6" t="n">
-        <v>122147.48</v>
+        <v>98355.39</v>
       </c>
       <c r="M6" t="n">
-        <v>31234.16</v>
+        <v>26512.66</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>10877.71</v>
+        <v>8742.290000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>6273.21</v>
+        <v>5088.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>834.14</v>
+        <v>583.9400000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>283.56</v>
+        <v>83.38</v>
       </c>
       <c r="S6" t="n">
         <v>77151.02</v>
       </c>
       <c r="T6" t="n">
-        <v>4170.88</v>
+        <v>3336.61</v>
       </c>
       <c r="U6" t="n">
-        <v>900.96</v>
+        <v>784.15</v>
       </c>
       <c r="V6" t="n">
-        <v>5255.74</v>
+        <v>4538.29</v>
       </c>
       <c r="W6" t="n">
         <v>216.94</v>
       </c>
       <c r="X6" t="n">
-        <v>77935.16</v>
+        <v>64771.94</v>
       </c>
       <c r="Y6" t="n">
-        <v>15967.35</v>
+        <v>10928.41</v>
       </c>
       <c r="Z6" t="n">
-        <v>6908.27</v>
+        <v>6391.07</v>
       </c>
       <c r="AA6" t="n">
-        <v>6289.64</v>
+        <v>5271.95</v>
       </c>
       <c r="AB6" t="n">
         <v>1701.69</v>
       </c>
       <c r="AC6" t="n">
-        <v>1784.37</v>
+        <v>1601.53</v>
       </c>
       <c r="AD6" t="n">
         <v>4171.15</v>
@@ -1324,25 +1304,25 @@
         <v>617.23</v>
       </c>
       <c r="AH6" t="n">
-        <v>5922.52</v>
+        <v>4804.85</v>
       </c>
       <c r="AI6" t="n">
-        <v>1535.26</v>
+        <v>1368.39</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8940.549999999999</v>
+        <v>3184.28</v>
       </c>
       <c r="AK6" t="n">
-        <v>74391.44</v>
+        <v>58339.75</v>
       </c>
       <c r="AL6" t="n">
         <v>1784.83</v>
       </c>
       <c r="AM6" t="n">
-        <v>6692.23</v>
+        <v>6358.54</v>
       </c>
       <c r="AN6" t="n">
-        <v>2369.19</v>
+        <v>2219.05</v>
       </c>
       <c r="AO6" t="n">
         <v>3854.16</v>
@@ -1351,7 +1331,7 @@
         <v>350.37</v>
       </c>
       <c r="AQ6" t="n">
-        <v>283.56</v>
+        <v>83.38</v>
       </c>
       <c r="AR6" t="n">
         <v>917.47</v>
@@ -1362,9 +1342,7 @@
       <c r="AT6" t="n">
         <v>1251.23</v>
       </c>
-      <c r="AU6" t="n">
-        <v>216.88</v>
-      </c>
+      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
         <v>3069.89</v>
       </c>
@@ -1378,7 +1356,7 @@
         <v>367.04</v>
       </c>
       <c r="AZ6" t="n">
-        <v>750.7</v>
+        <v>383.64</v>
       </c>
     </row>
     <row r="7">
@@ -1388,153 +1366,151 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="C7" t="n">
-        <v>0.92</v>
+        <v>1.28</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.04</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.08</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.03</v>
+        <v>2.91</v>
       </c>
       <c r="J7" t="n">
-        <v>0.51</v>
+        <v>0.83</v>
       </c>
       <c r="K7" t="n">
-        <v>2.63</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>21.79</v>
+        <v>27.64</v>
       </c>
       <c r="M7" t="n">
-        <v>5.46</v>
+        <v>7.47</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>1.9</v>
+        <v>2.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S7" t="n">
         <v>35.57</v>
       </c>
       <c r="T7" t="n">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="U7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW7" t="n">
         <v>0.16</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AX7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>0.11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -1544,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.16</v>
+        <v>156.83</v>
       </c>
       <c r="C8" t="n">
-        <v>328.48</v>
+        <v>349.1</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
@@ -1557,71 +1533,71 @@
         <v>628.39</v>
       </c>
       <c r="G8" t="n">
-        <v>489.17</v>
+        <v>642.33</v>
       </c>
       <c r="H8" t="n">
-        <v>216.88</v>
+        <v>150.11</v>
       </c>
       <c r="I8" t="n">
-        <v>352.45</v>
+        <v>356.19</v>
       </c>
       <c r="J8" t="n">
         <v>367.03</v>
       </c>
       <c r="K8" t="n">
-        <v>333.69</v>
+        <v>354.65</v>
       </c>
       <c r="L8" t="n">
-        <v>314.81</v>
+        <v>341.51</v>
       </c>
       <c r="M8" t="n">
-        <v>325.36</v>
+        <v>353.5</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>286.26</v>
+        <v>323.79</v>
       </c>
       <c r="P8" t="n">
-        <v>369.01</v>
+        <v>391.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>208.54</v>
+        <v>291.97</v>
       </c>
       <c r="R8" t="n">
-        <v>141.78</v>
+        <v>83.38</v>
       </c>
       <c r="S8" t="n">
         <v>255.47</v>
       </c>
       <c r="T8" t="n">
-        <v>379.17</v>
+        <v>417.08</v>
       </c>
       <c r="U8" t="n">
-        <v>150.16</v>
+        <v>156.83</v>
       </c>
       <c r="V8" t="n">
-        <v>328.48</v>
+        <v>349.1</v>
       </c>
       <c r="W8" t="n">
         <v>216.94</v>
       </c>
       <c r="X8" t="n">
-        <v>333.06</v>
+        <v>357.86</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.35</v>
+        <v>321.42</v>
       </c>
       <c r="Z8" t="n">
-        <v>314.01</v>
+        <v>319.55</v>
       </c>
       <c r="AA8" t="n">
-        <v>483.82</v>
+        <v>585.77</v>
       </c>
       <c r="AB8" t="n">
         <v>850.84</v>
       </c>
       <c r="AC8" t="n">
-        <v>297.39</v>
+        <v>320.31</v>
       </c>
       <c r="AD8" t="n">
         <v>1390.38</v>
@@ -1636,25 +1612,25 @@
         <v>154.31</v>
       </c>
       <c r="AH8" t="n">
-        <v>394.83</v>
+        <v>436.8</v>
       </c>
       <c r="AI8" t="n">
-        <v>219.32</v>
+        <v>228.06</v>
       </c>
       <c r="AJ8" t="n">
-        <v>262.96</v>
+        <v>244.94</v>
       </c>
       <c r="AK8" t="n">
-        <v>308.68</v>
+        <v>335.29</v>
       </c>
       <c r="AL8" t="n">
         <v>594.9400000000001</v>
       </c>
       <c r="AM8" t="n">
-        <v>514.79</v>
+        <v>529.88</v>
       </c>
       <c r="AN8" t="n">
-        <v>394.87</v>
+        <v>443.81</v>
       </c>
       <c r="AO8" t="n">
         <v>1927.08</v>
@@ -1663,7 +1639,7 @@
         <v>350.37</v>
       </c>
       <c r="AQ8" t="n">
-        <v>141.78</v>
+        <v>83.38</v>
       </c>
       <c r="AR8" t="n">
         <v>229.37</v>
@@ -1674,9 +1650,7 @@
       <c r="AT8" t="n">
         <v>625.61</v>
       </c>
-      <c r="AU8" t="n">
-        <v>216.88</v>
-      </c>
+      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>613.98</v>
       </c>
@@ -1690,7 +1664,7 @@
         <v>367.04</v>
       </c>
       <c r="AZ8" t="n">
-        <v>375.35</v>
+        <v>383.64</v>
       </c>
     </row>
     <row r="9">
@@ -1830,9 +1804,7 @@
       <c r="AT9" t="n">
         <v>333.65</v>
       </c>
-      <c r="AU9" t="n">
-        <v>216.88</v>
-      </c>
+      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>200.23</v>
       </c>
@@ -1903,114 +1875,6 @@
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
